--- a/biology/Zoologie/Eunica_mygdonia/Eunica_mygdonia.xlsx
+++ b/biology/Zoologie/Eunica_mygdonia/Eunica_mygdonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Eunica mygdonia  est une  espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des  Biblidinae, tribu des Epicaliini, du genre Eunica .
 </t>
@@ -511,15 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Eunica mygdonia a été décrite par le naturaliste français Jean-Baptiste Godart en 1824[1].
-Noms vernaculaires
- Eunica mygdonia se nomme Brown Purplewing en anglais.
-Taxinomie
-Il existe 2 sous-espèces
-Eunica mygdonia mygdonia [2]
-Eunica mygdonia omoa (Hall, 1919) [3]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica mygdonia a été décrite par le naturaliste français Jean-Baptiste Godart en 1824.
+</t>
         </is>
       </c>
     </row>
@@ -544,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon d'une envergure variant de 54 mm à 57 mm, au dessus marron roux uniforme chez le mâle, aux antérieures marquées d'une bande blanche chez la femelle. Le revers est marron roux taché de blanc aux antérieures et suffusé de violet aux postérieures.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica mygdonia se nomme Brown Purplewing en anglais.
 </t>
         </is>
       </c>
@@ -575,15 +590,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol
-Plantes hôtes
-Les larves se nourrissent sur Mabea occidentalis[4].
-</t>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe 2 sous-espèces
+Eunica mygdonia mygdonia 
+Eunica mygdonia omoa (Hall, 1919) </t>
         </is>
       </c>
     </row>
@@ -608,15 +628,121 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon d'une envergure variant de 54 mm à 57 mm, au dessus marron roux uniforme chez le mâle, aux antérieures marquées d'une bande blanche chez la femelle. Le revers est marron roux taché de blanc aux antérieures et suffusé de violet aux postérieures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eunica_mygdonia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_mygdonia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les larves se nourrissent sur Mabea occidentalis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eunica_mygdonia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_mygdonia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Eunica mygdonia  est présent du Mexique, au Guatemala, en Équateur, en Colombie et au Brésil dans le bassin de l'Amazone[5].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica mygdonia  est présent du Mexique, au Guatemala, en Équateur, en Colombie et au Brésil dans le bassin de l'Amazone.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eunica_mygdonia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_mygdonia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Eunica mygdonia, sur Wikimedia CommonsEunica mygdonia, sur Wikispecies
 </t>
